--- a/docs/controllers/controller_data.xlsx
+++ b/docs/controllers/controller_data.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/data/controllers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/docs/controllers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66251BCF-8C12-7B40-A861-D7582CFAF6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB068A2-5C1F-9E41-B8BF-5503B9355AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{2F87124F-FADD-1C4B-8E1F-F5E2F237BAFB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="1" xr2:uid="{2F87124F-FADD-1C4B-8E1F-F5E2F237BAFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Curated" sheetId="2" r:id="rId2"/>
+    <sheet name="Duffy et al" sheetId="3" r:id="rId2"/>
+    <sheet name="Curated" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="142">
   <si>
     <t>No</t>
   </si>
@@ -441,12 +442,36 @@
   <si>
     <t>Gen4 Size 8</t>
   </si>
+  <si>
+    <t>Max. Continuous Power (kW)</t>
+  </si>
+  <si>
+    <t>Weight (kg)</t>
+  </si>
+  <si>
+    <t>Coolant</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Duffy, M., Sevier, A. E., Hupp, R., Perdomo, E., and Wakayama, S., “Propulsion Scaling Methods in the Era of Electric Flight,”</t>
+  </si>
+  <si>
+    <t>presented at the 2018 AIAA/IEEE Electric Aircraft Technologies Symposium, Cincinnati, Ohio, 2018. https://doi.org/10.2514/6.2018-4978</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -487,6 +512,19 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -701,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -769,6 +807,75 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -803,13 +910,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -827,13 +946,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -857,7 +979,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -881,12 +1006,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -906,42 +1025,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1794,6 +1877,790 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12441044805947479"/>
+          <c:y val="2.3166545671152807E-2"/>
+          <c:w val="0.81244149168853896"/>
+          <c:h val="0.83398895450568666"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Air-cooled</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Duffy et al'!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.3573319879640899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50757663018780896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0893142456198497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3947746212199297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.883455521700601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.8824567961389</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.945746523518899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.1785321013525</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.352804058730801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.821156135257301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>103.796146363567</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>182.86724512024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>352.31048343423799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Duffy et al'!$D$3:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.4053575601881898E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21747261673975299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20848939517870499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.296316424887965</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.11122378015471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.60169622747609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6243777156404799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7238516078849302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.52018011627607</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5700290965472101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.848931924611099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.8553479570107</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.369654616820803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-22A8-DA42-A596-0A334E272E72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Liquid-cooled</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Duffy et al'!$C$16:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>14.953996737237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.741420058324302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.608979189082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.006807121025297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.8147473609041</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.798321492027796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.373654311991601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.767171600632395</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.257596362468206</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120.47755599762201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>139.83988816231201</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.47755599762201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>79.373654311991601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120.47755599762201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>159.91289849841499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150.65846126908099</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>162.31400246560301</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>239.133696238742</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>299.03922282111802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Duffy et al'!$D$16:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.965456752581905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2764174622668398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8643285508483496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8399914829923096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4440708303353897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7584465957248998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.72172771535043</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.72172771535043</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5220441450484499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.9134472975585703</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.72172771535043</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6285631917447896</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.4198893523933407</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.479098310528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.4094188313234</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.842127342123099</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.6907367014985</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.2011172081087</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.8476879694635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-22A8-DA42-A596-0A334E272E72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="378918464"/>
+        <c:axId val="378920176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="378918464"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>Max.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+                  <a:t> Continuous Power (kW)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378920176"/>
+        <c:crossesAt val="0.01"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="378920176"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0.01"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>Weight (kg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378918464"/>
+        <c:crossesAt val="0.1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.65084008339032773"/>
+          <c:y val="0.71837103030114846"/>
+          <c:w val="0.26679191696125204"/>
+          <c:h val="0.11618791932739371"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -2680,7 +3547,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3586,7 +4453,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4474,7 +5341,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5371,7 +6238,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6131,7 +6998,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7175,6 +8042,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -10272,6 +11179,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10829,6 +12252,1052 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>240955</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>157361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>782823</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>204075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F513069A-71DC-9ECE-8602-E799DA1C72A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12404151" y="1636846"/>
+          <a:ext cx="6315785" cy="6331250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>539518</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>226666</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>100113</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Group 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B01904AF-D404-57BC-0187-AC58CF5D40DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5279106" y="2324608"/>
+          <a:ext cx="5461065" cy="5539526"/>
+          <a:chOff x="9350962" y="1958009"/>
+          <a:chExt cx="5461065" cy="5539526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="21" name="Group 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FD08C55-58D4-714D-CB00-9E4B8426B178}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="9350962" y="1958009"/>
+            <a:ext cx="5461065" cy="5539526"/>
+            <a:chOff x="6325380" y="3373702"/>
+            <a:chExt cx="5433122" cy="5436220"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="9" name="Chart 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96444DC7-F028-5FDB-AED9-38E3E0AB438B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="6325380" y="3373702"/>
+            <a:ext cx="5433122" cy="5436220"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C69A2B6-9FAB-6C94-741B-EDBAD3D9C888}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="9917797" y="5242549"/>
+              <a:ext cx="286568" cy="809464"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:tailEnd type="none"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69C8EB4F-CD51-9C41-A09B-907E9E5A01D2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="11233608" y="3718351"/>
+            <a:ext cx="746288" cy="824845"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.1987</cdr:x>
+      <cdr:y>0.17462</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.51256</cdr:x>
+      <cdr:y>0.31305</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="TextBox 36">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2880D47B-17DC-4D30-E40A-F68302638676}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="1085129" y="967293"/>
+              <a:ext cx="1714012" cy="766863"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </cdr:style>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" i="0"/>
+                <a:t>Air-cooled Trend</a:t>
+              </a:r>
+            </a:p>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1300" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>y</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1300" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=0.1149 </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1300" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>x</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1300" i="0"/>
+            </a:p>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1300" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:r>
+                        <m:rPr>
+                          <m:sty m:val="p"/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1300" b="0" i="0">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>R</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1300" b="0" i="0">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1300" b="0" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=0.9774</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1300" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="TextBox 36">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2880D47B-17DC-4D30-E40A-F68302638676}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="1085129" y="967293"/>
+              <a:ext cx="1714012" cy="766863"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </cdr:style>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" i="0"/>
+                <a:t>Air-cooled Trend</a:t>
+              </a:r>
+            </a:p>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1300" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>y=0.1149 x</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1300" i="0"/>
+            </a:p>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1300" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>R^2=0.9774</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1300" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.56291</cdr:x>
+      <cdr:y>0.49133</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.91534</cdr:x>
+      <cdr:y>0.61558</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="3" name="TextBox 36">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A428A80-026F-6197-6719-10FD2E71A32C}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="3074091" y="2721728"/>
+              <a:ext cx="1924639" cy="688304"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </cdr:style>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" i="0"/>
+                <a:t>Liquid-cooled Trend</a:t>
+              </a:r>
+            </a:p>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1300" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>y</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1300" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=0.07 </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1300" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>x</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1300" i="0"/>
+            </a:p>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1300" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:r>
+                        <m:rPr>
+                          <m:sty m:val="p"/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1300" b="0" i="0">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>R</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1300" b="0" i="0">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1300" b="0" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=0.9433</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1300" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="3" name="TextBox 36">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A428A80-026F-6197-6719-10FD2E71A32C}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="3074091" y="2721728"/>
+              <a:ext cx="1924639" cy="688304"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </cdr:style>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" i="0"/>
+                <a:t>Liquid-cooled Trend</a:t>
+              </a:r>
+            </a:p>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1300" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>y=0.07 x</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1300" i="0"/>
+            </a:p>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1300" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>R^2=0.9433</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1300" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11380,7 +13849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6965AA0C-F6DC-7C4E-924A-27408B62696D}">
   <dimension ref="B2:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="92" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -11393,64 +13862,64 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="24"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
     </row>
     <row r="5" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25" t="s">
+      <c r="G5" s="50"/>
+      <c r="H5" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="33" t="s">
+      <c r="I5" s="50"/>
+      <c r="J5" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="50" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
@@ -11463,15 +13932,15 @@
       <c r="I6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="25"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="50"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16">
         <v>1</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="54" t="s">
         <v>112</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -11489,7 +13958,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="56" t="s">
         <v>113</v>
       </c>
       <c r="N7" s="1"/>
@@ -11498,7 +13967,7 @@
       <c r="B8" s="16">
         <v>2</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="17" t="s">
         <v>115</v>
       </c>
@@ -11514,7 +13983,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
-      <c r="K8" s="32"/>
+      <c r="K8" s="57"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -11524,30 +13993,30 @@
       <c r="C9" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="24">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="24">
         <f>J9*H9/1000</f>
         <v>154</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="24">
         <v>110</v>
       </c>
-      <c r="H9" s="70">
+      <c r="H9" s="24">
         <v>280</v>
       </c>
-      <c r="I9" s="70">
+      <c r="I9" s="24">
         <v>200</v>
       </c>
-      <c r="J9" s="72">
-        <f>ROUND(G9*1000/I9,1)</f>
+      <c r="J9" s="26">
+        <f t="shared" ref="J9:J15" si="0">ROUND(G9*1000/I9,1)</f>
         <v>550</v>
       </c>
-      <c r="K9" s="70" t="s">
+      <c r="K9" s="24" t="s">
         <v>120</v>
       </c>
       <c r="N9" s="1"/>
@@ -11559,29 +14028,29 @@
       <c r="C10" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="25">
         <v>8.5</v>
       </c>
-      <c r="F10" s="71">
+      <c r="F10" s="25">
         <v>100</v>
       </c>
-      <c r="G10" s="71">
+      <c r="G10" s="25">
         <v>60</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="25">
         <v>400</v>
       </c>
-      <c r="I10" s="71">
+      <c r="I10" s="25">
         <v>200</v>
       </c>
-      <c r="J10" s="71">
-        <f>ROUND(G10*1000/I10,1)</f>
+      <c r="J10" s="25">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="K10" s="81" t="s">
+      <c r="K10" s="31" t="s">
         <v>132</v>
       </c>
       <c r="N10" s="1"/>
@@ -11590,32 +14059,32 @@
       <c r="B11" s="16">
         <v>7</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="73">
+      <c r="E11" s="27">
         <v>6.5</v>
       </c>
-      <c r="F11" s="73">
+      <c r="F11" s="27">
         <v>52</v>
       </c>
-      <c r="G11" s="73">
+      <c r="G11" s="27">
         <v>39</v>
       </c>
-      <c r="H11" s="73">
+      <c r="H11" s="27">
         <v>150</v>
       </c>
-      <c r="I11" s="73">
+      <c r="I11" s="27">
         <v>112</v>
       </c>
-      <c r="J11" s="73">
-        <f>ROUND(G11*1000/I11,1)</f>
+      <c r="J11" s="27">
+        <f t="shared" si="0"/>
         <v>348.2</v>
       </c>
-      <c r="K11" s="74" t="s">
+      <c r="K11" s="63" t="s">
         <v>124</v>
       </c>
       <c r="N11" s="1"/>
@@ -11624,148 +14093,148 @@
       <c r="B12" s="16">
         <v>8</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="73" t="s">
+      <c r="C12" s="52"/>
+      <c r="D12" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="27">
         <v>9.5</v>
       </c>
-      <c r="F12" s="73">
+      <c r="F12" s="27">
         <v>105</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="27">
         <v>79</v>
       </c>
-      <c r="H12" s="73">
+      <c r="H12" s="27">
         <v>300</v>
       </c>
-      <c r="I12" s="73">
+      <c r="I12" s="27">
         <v>225</v>
       </c>
-      <c r="J12" s="73">
-        <f>ROUND(G12*1000/I12,1)</f>
+      <c r="J12" s="27">
+        <f t="shared" si="0"/>
         <v>351.1</v>
       </c>
-      <c r="K12" s="36"/>
+      <c r="K12" s="64"/>
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="16">
         <v>9</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="73" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="27">
         <v>12.5</v>
       </c>
-      <c r="F13" s="73">
+      <c r="F13" s="27">
         <v>157</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G13" s="27">
         <v>118</v>
       </c>
-      <c r="H13" s="73">
+      <c r="H13" s="27">
         <v>450</v>
       </c>
-      <c r="I13" s="73">
+      <c r="I13" s="27">
         <v>337</v>
       </c>
-      <c r="J13" s="73">
-        <f>ROUND(G13*1000/I13,1)</f>
+      <c r="J13" s="27">
+        <f t="shared" si="0"/>
         <v>350.1</v>
       </c>
-      <c r="K13" s="36"/>
+      <c r="K13" s="64"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16">
         <v>10</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="73" t="s">
+      <c r="C14" s="52"/>
+      <c r="D14" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="73">
+      <c r="E14" s="27">
         <v>15.5</v>
       </c>
-      <c r="F14" s="73">
+      <c r="F14" s="27">
         <v>212</v>
       </c>
-      <c r="G14" s="73">
+      <c r="G14" s="27">
         <v>160</v>
       </c>
-      <c r="H14" s="73">
+      <c r="H14" s="27">
         <v>600</v>
       </c>
-      <c r="I14" s="73">
+      <c r="I14" s="27">
         <v>450</v>
       </c>
-      <c r="J14" s="73">
-        <f>ROUND(G14*1000/I14,1)</f>
+      <c r="J14" s="27">
+        <f t="shared" si="0"/>
         <v>355.6</v>
       </c>
-      <c r="K14" s="36"/>
+      <c r="K14" s="64"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16">
         <v>11</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="73" t="s">
+      <c r="C15" s="52"/>
+      <c r="D15" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="73">
+      <c r="E15" s="27">
         <v>25.2</v>
       </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73">
+      <c r="F15" s="27"/>
+      <c r="G15" s="27">
         <v>180</v>
       </c>
-      <c r="H15" s="73">
+      <c r="H15" s="27">
         <v>400</v>
       </c>
-      <c r="I15" s="73">
+      <c r="I15" s="27">
         <v>300</v>
       </c>
-      <c r="J15" s="73">
-        <f>ROUND(G15*1000/I15,1)</f>
+      <c r="J15" s="27">
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="K15" s="36"/>
+      <c r="K15" s="64"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="16">
         <v>12</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="73" t="s">
+      <c r="C16" s="52"/>
+      <c r="D16" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="73">
+      <c r="E16" s="27">
         <v>29</v>
       </c>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73">
+      <c r="F16" s="27"/>
+      <c r="G16" s="27">
         <v>250</v>
       </c>
-      <c r="H16" s="73">
+      <c r="H16" s="27">
         <v>600</v>
       </c>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="37"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="65"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" s="16">
         <v>13</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="51" t="s">
         <v>96</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -11782,8 +14251,8 @@
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="76" t="s">
+      <c r="J17" s="28"/>
+      <c r="K17" s="60" t="s">
         <v>107</v>
       </c>
       <c r="T17" t="s">
@@ -11797,7 +14266,7 @@
       <c r="B18" s="16">
         <v>14</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="3" t="s">
         <v>109</v>
       </c>
@@ -11812,8 +14281,8 @@
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="78"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="61"/>
       <c r="T18">
         <f xml:space="preserve"> 49.9/398 * (U18-2) + 0.1</f>
         <v>1.1030150753768846</v>
@@ -11826,7 +14295,7 @@
       <c r="B19" s="16">
         <v>15</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="3" t="s">
         <v>110</v>
       </c>
@@ -11841,8 +14310,8 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="78"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="61"/>
       <c r="T19">
         <f xml:space="preserve"> 49.9/398 * (U19-2) + 0.1</f>
         <v>2.3567839195979903</v>
@@ -11855,7 +14324,7 @@
       <c r="B20" s="16">
         <v>16</v>
       </c>
-      <c r="C20" s="28"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="3" t="s">
         <v>111</v>
       </c>
@@ -11870,10 +14339,10 @@
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="80"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="62"/>
       <c r="T20">
-        <f t="shared" ref="T20:T46" si="0" xml:space="preserve"> 49.9/398 * (U20-2) + 0.1</f>
+        <f t="shared" ref="T20:T46" si="1" xml:space="preserve"> 49.9/398 * (U20-2) + 0.1</f>
         <v>3.6105527638190957</v>
       </c>
       <c r="U20">
@@ -11882,7 +14351,7 @@
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="T21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.1180904522613062</v>
       </c>
       <c r="U21">
@@ -11891,7 +14360,7 @@
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="T22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3718592964824126</v>
       </c>
       <c r="U22">
@@ -11900,7 +14369,7 @@
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="T23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6256281407035171</v>
       </c>
       <c r="U23">
@@ -11909,7 +14378,7 @@
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="T24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8793969849246235</v>
       </c>
       <c r="U24">
@@ -11918,7 +14387,7 @@
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="T25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.13316582914573</v>
       </c>
       <c r="U25">
@@ -11927,7 +14396,7 @@
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="T26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.386934673366834</v>
       </c>
       <c r="U26">
@@ -11936,7 +14405,7 @@
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="T27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.640703517587941</v>
       </c>
       <c r="U27">
@@ -11945,7 +14414,7 @@
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="T28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.894472361809045</v>
       </c>
       <c r="U28">
@@ -11954,7 +14423,7 @@
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="T29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.148241206030153</v>
       </c>
       <c r="U29">
@@ -11963,7 +14432,7 @@
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="T30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.40201005025126</v>
       </c>
       <c r="U30">
@@ -11972,7 +14441,7 @@
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="T31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.655778894472366</v>
       </c>
       <c r="U31">
@@ -11981,7 +14450,7 @@
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="T32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.909547738693469</v>
       </c>
       <c r="U32">
@@ -11990,7 +14459,7 @@
     </row>
     <row r="33" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.163316582914575</v>
       </c>
       <c r="U33">
@@ -11999,7 +14468,7 @@
     </row>
     <row r="34" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.417085427135682</v>
       </c>
       <c r="U34">
@@ -12008,7 +14477,7 @@
     </row>
     <row r="35" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.670854271356788</v>
       </c>
       <c r="U35">
@@ -12017,7 +14486,7 @@
     </row>
     <row r="36" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.924623115577894</v>
       </c>
       <c r="U36">
@@ -12026,7 +14495,7 @@
     </row>
     <row r="37" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26.178391959798997</v>
       </c>
       <c r="U37">
@@ -12035,7 +14504,7 @@
     </row>
     <row r="38" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.432160804020103</v>
       </c>
       <c r="U38">
@@ -12044,7 +14513,7 @@
     </row>
     <row r="39" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28.68592964824121</v>
       </c>
       <c r="U39">
@@ -12053,7 +14522,7 @@
     </row>
     <row r="40" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.939698492462316</v>
       </c>
       <c r="U40">
@@ -12062,7 +14531,7 @@
     </row>
     <row r="41" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31.193467336683423</v>
       </c>
       <c r="U41">
@@ -12071,7 +14540,7 @@
     </row>
     <row r="42" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32.447236180904525</v>
       </c>
       <c r="U42">
@@ -12080,7 +14549,7 @@
     </row>
     <row r="43" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.701005025125632</v>
       </c>
       <c r="U43">
@@ -12089,7 +14558,7 @@
     </row>
     <row r="44" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34.954773869346738</v>
       </c>
       <c r="U44">
@@ -12098,7 +14567,7 @@
     </row>
     <row r="45" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36.208542713567844</v>
       </c>
       <c r="U45">
@@ -12107,7 +14576,7 @@
     </row>
     <row r="46" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37.462311557788951</v>
       </c>
       <c r="U46">
@@ -12139,10 +14608,626 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E76DEE-66FE-6E46-8276-3145E42439BE}">
+  <dimension ref="B2:K38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="35">
+        <v>1</v>
+      </c>
+      <c r="C3" s="36">
+        <v>1.3573319879640899</v>
+      </c>
+      <c r="D3" s="41">
+        <v>5.4053575601881898E-2</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B4" s="37">
+        <v>2</v>
+      </c>
+      <c r="C4" s="38">
+        <v>0.50757663018780896</v>
+      </c>
+      <c r="D4" s="42">
+        <v>0.21747261673975299</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="37">
+        <v>3</v>
+      </c>
+      <c r="C5" s="38">
+        <v>4.0893142456198497</v>
+      </c>
+      <c r="D5" s="42">
+        <v>0.20848939517870499</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="37">
+        <v>4</v>
+      </c>
+      <c r="C6" s="38">
+        <v>6.3947746212199297</v>
+      </c>
+      <c r="D6" s="42">
+        <v>0.296316424887965</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="37">
+        <v>5</v>
+      </c>
+      <c r="C7" s="38">
+        <v>12.883455521700601</v>
+      </c>
+      <c r="D7" s="42">
+        <v>1.11122378015471</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="37">
+        <v>6</v>
+      </c>
+      <c r="C8" s="38">
+        <v>17.8824567961389</v>
+      </c>
+      <c r="D8" s="42">
+        <v>1.60169622747609</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="37">
+        <v>7</v>
+      </c>
+      <c r="C9" s="38">
+        <v>32.945746523518899</v>
+      </c>
+      <c r="D9" s="42">
+        <v>1.6243777156404799</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="37">
+        <v>8</v>
+      </c>
+      <c r="C10" s="38">
+        <v>15.1785321013525</v>
+      </c>
+      <c r="D10" s="42">
+        <v>3.7238516078849302</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="37">
+        <v>9</v>
+      </c>
+      <c r="C11" s="38">
+        <v>16.352804058730801</v>
+      </c>
+      <c r="D11" s="42">
+        <v>3.52018011627607</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="37">
+        <v>10</v>
+      </c>
+      <c r="C12" s="38">
+        <v>24.821156135257301</v>
+      </c>
+      <c r="D12" s="42">
+        <v>3.5700290965472101</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="37">
+        <v>11</v>
+      </c>
+      <c r="C13" s="38">
+        <v>103.796146363567</v>
+      </c>
+      <c r="D13" s="42">
+        <v>15.848931924611099</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="37">
+        <v>12</v>
+      </c>
+      <c r="C14" s="38">
+        <v>182.86724512024</v>
+      </c>
+      <c r="D14" s="42">
+        <v>24.8553479570107</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" s="37">
+        <v>13</v>
+      </c>
+      <c r="C15" s="38">
+        <v>352.31048343423799</v>
+      </c>
+      <c r="D15" s="42">
+        <v>37.369654616820803</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="37">
+        <v>14</v>
+      </c>
+      <c r="C16" s="38">
+        <v>14.953996737237</v>
+      </c>
+      <c r="D16" s="39">
+        <v>0.965456752581905</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="37">
+        <v>15</v>
+      </c>
+      <c r="C17" s="38">
+        <v>26.741420058324302</v>
+      </c>
+      <c r="D17" s="39">
+        <v>2.2764174622668398</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="37">
+        <v>16</v>
+      </c>
+      <c r="C18" s="38">
+        <v>61.608979189082</v>
+      </c>
+      <c r="D18" s="39">
+        <v>4.8643285508483496</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="37">
+        <v>17</v>
+      </c>
+      <c r="C19" s="38">
+        <v>50.006807121025297</v>
+      </c>
+      <c r="D19" s="39">
+        <v>5.8399914829923096</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="37">
+        <v>18</v>
+      </c>
+      <c r="C20" s="38">
+        <v>38.8147473609041</v>
+      </c>
+      <c r="D20" s="39">
+        <v>6.4440708303353897</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="37">
+        <v>19</v>
+      </c>
+      <c r="C21" s="38">
+        <v>86.798321492027796</v>
+      </c>
+      <c r="D21" s="39">
+        <v>5.7584465957248998</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="37">
+        <v>20</v>
+      </c>
+      <c r="C22" s="38">
+        <v>79.373654311991601</v>
+      </c>
+      <c r="D22" s="39">
+        <v>6.72172771535043</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="37">
+        <v>21</v>
+      </c>
+      <c r="C23" s="38">
+        <v>90.767171600632395</v>
+      </c>
+      <c r="D23" s="39">
+        <v>6.72172771535043</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="37">
+        <v>22</v>
+      </c>
+      <c r="C24" s="38">
+        <v>99.257596362468206</v>
+      </c>
+      <c r="D24" s="39">
+        <v>7.5220441450484499</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="37">
+        <v>23</v>
+      </c>
+      <c r="C25" s="38">
+        <v>120.47755599762201</v>
+      </c>
+      <c r="D25" s="39">
+        <v>6.9134472975585703</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="37">
+        <v>24</v>
+      </c>
+      <c r="C26" s="38">
+        <v>139.83988816231201</v>
+      </c>
+      <c r="D26" s="39">
+        <v>6.72172771535043</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="37">
+        <v>25</v>
+      </c>
+      <c r="C27" s="38">
+        <v>120.47755599762201</v>
+      </c>
+      <c r="D27" s="39">
+        <v>7.6285631917447896</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="37">
+        <v>26</v>
+      </c>
+      <c r="C28" s="38">
+        <v>79.373654311991601</v>
+      </c>
+      <c r="D28" s="39">
+        <v>9.4198893523933407</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="37">
+        <v>27</v>
+      </c>
+      <c r="C29" s="38">
+        <v>120.47755599762201</v>
+      </c>
+      <c r="D29" s="39">
+        <v>12.479098310528</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="37">
+        <v>28</v>
+      </c>
+      <c r="C30" s="38">
+        <v>159.91289849841499</v>
+      </c>
+      <c r="D30" s="39">
+        <v>15.4094188313234</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" s="32"/>
+      <c r="I30" s="33"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="37">
+        <v>29</v>
+      </c>
+      <c r="C31" s="38">
+        <v>150.65846126908099</v>
+      </c>
+      <c r="D31" s="39">
+        <v>10.842127342123099</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="32"/>
+      <c r="I31" s="33"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="37">
+        <v>30</v>
+      </c>
+      <c r="C32" s="38">
+        <v>162.31400246560301</v>
+      </c>
+      <c r="D32" s="39">
+        <v>10.6907367014985</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="32"/>
+      <c r="I32" s="33"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="37">
+        <v>31</v>
+      </c>
+      <c r="C33" s="38">
+        <v>239.133696238742</v>
+      </c>
+      <c r="D33" s="39">
+        <v>13.2011172081087</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="44">
+        <v>32</v>
+      </c>
+      <c r="C34" s="45">
+        <v>299.03922282111802</v>
+      </c>
+      <c r="D34" s="46">
+        <v>19.8476879694635</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="47"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EA9C6B-7942-C84D-BA2E-598934CE2C8D}">
   <dimension ref="B2:Q123"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScale="75" workbookViewId="0">
       <selection activeCell="I109" sqref="I109:K111"/>
     </sheetView>
   </sheetViews>
@@ -12159,19 +15244,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
@@ -12179,17 +15264,17 @@
       <c r="Q2" s="15"/>
     </row>
     <row r="3" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
       <c r="M3" s="15"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
@@ -12206,58 +15291,58 @@
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="50" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="16">
         <v>1</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="67" t="s">
         <v>74</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -12288,7 +15373,7 @@
         <f>ROUND(9550*G7/I7,1)</f>
         <v>5968.8</v>
       </c>
-      <c r="L7" s="64" t="s">
+      <c r="L7" s="93" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12296,7 +15381,7 @@
       <c r="B8" s="16">
         <v>2</v>
       </c>
-      <c r="C8" s="39"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="17" t="s">
         <v>76</v>
       </c>
@@ -12325,13 +15410,13 @@
         <f>ROUND(9550*G8/I8,1)</f>
         <v>4004.8</v>
       </c>
-      <c r="L8" s="65"/>
+      <c r="L8" s="94"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="16">
         <v>3</v>
       </c>
-      <c r="C9" s="40"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="17" t="s">
         <v>77</v>
       </c>
@@ -12360,13 +15445,13 @@
         <f>ROUND(9550*G9/I9,1)</f>
         <v>3660.8</v>
       </c>
-      <c r="L9" s="66"/>
+      <c r="L9" s="95"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="16">
         <v>4</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="9">
@@ -12397,7 +15482,7 @@
         <f>ROUND(9550*G10/I10,1)</f>
         <v>6309.8</v>
       </c>
-      <c r="L10" s="46" t="s">
+      <c r="L10" s="76" t="s">
         <v>62</v>
       </c>
     </row>
@@ -12405,7 +15490,7 @@
       <c r="B11" s="16">
         <v>5</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="9">
         <v>208</v>
       </c>
@@ -12434,13 +15519,13 @@
         <f t="shared" ref="K11:K41" si="3">ROUND(9550*G11/I11,1)</f>
         <v>5942.2</v>
       </c>
-      <c r="L11" s="46"/>
+      <c r="L11" s="76"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="16">
         <v>6</v>
       </c>
-      <c r="C12" s="43"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="9">
         <v>228</v>
       </c>
@@ -12469,13 +15554,13 @@
         <f t="shared" si="3"/>
         <v>5509.6</v>
       </c>
-      <c r="L12" s="46"/>
+      <c r="L12" s="76"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="16">
         <v>7</v>
       </c>
-      <c r="C13" s="43"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="9">
         <v>268</v>
       </c>
@@ -12504,13 +15589,13 @@
         <f t="shared" si="3"/>
         <v>4469.3999999999996</v>
       </c>
-      <c r="L13" s="46"/>
+      <c r="L13" s="76"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="16">
         <v>8</v>
       </c>
-      <c r="C14" s="43"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="9">
         <v>348</v>
       </c>
@@ -12539,13 +15624,13 @@
         <f t="shared" si="3"/>
         <v>4011</v>
       </c>
-      <c r="L14" s="46"/>
+      <c r="L14" s="76"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="16">
         <v>9</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="51" t="s">
         <v>96</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -12576,7 +15661,7 @@
       <c r="K15" s="7">
         <v>2100</v>
       </c>
-      <c r="L15" s="67" t="s">
+      <c r="L15" s="96" t="s">
         <v>107</v>
       </c>
     </row>
@@ -12584,7 +15669,7 @@
       <c r="B16" s="16">
         <v>10</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="7" t="s">
         <v>98</v>
       </c>
@@ -12613,13 +15698,13 @@
       <c r="K16" s="7">
         <v>2800</v>
       </c>
-      <c r="L16" s="68"/>
+      <c r="L16" s="97"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="16">
         <v>11</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="7" t="s">
         <v>99</v>
       </c>
@@ -12648,13 +15733,13 @@
       <c r="K17" s="7">
         <v>2200</v>
       </c>
-      <c r="L17" s="68"/>
+      <c r="L17" s="97"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="16">
         <v>12</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="7" t="s">
         <v>100</v>
       </c>
@@ -12683,13 +15768,13 @@
       <c r="K18" s="7">
         <v>2230</v>
       </c>
-      <c r="L18" s="68"/>
+      <c r="L18" s="97"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="16">
         <v>13</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="7" t="s">
         <v>101</v>
       </c>
@@ -12718,13 +15803,13 @@
       <c r="K19" s="7">
         <v>2700</v>
       </c>
-      <c r="L19" s="68"/>
+      <c r="L19" s="97"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="16">
         <v>14</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="7" t="s">
         <v>102</v>
       </c>
@@ -12753,13 +15838,13 @@
       <c r="K20" s="7">
         <v>2700</v>
       </c>
-      <c r="L20" s="68"/>
+      <c r="L20" s="97"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="16">
         <v>15</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="7" t="s">
         <v>103</v>
       </c>
@@ -12788,13 +15873,13 @@
       <c r="K21" s="7">
         <v>2250</v>
       </c>
-      <c r="L21" s="68"/>
+      <c r="L21" s="97"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="16">
         <v>16</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="7" t="s">
         <v>104</v>
       </c>
@@ -12823,13 +15908,13 @@
       <c r="K22" s="7">
         <v>2200</v>
       </c>
-      <c r="L22" s="68"/>
+      <c r="L22" s="97"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="16">
         <v>17</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="7" t="s">
         <v>105</v>
       </c>
@@ -12858,13 +15943,13 @@
       <c r="K23" s="7">
         <v>2700</v>
       </c>
-      <c r="L23" s="68"/>
+      <c r="L23" s="97"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="16">
         <v>18</v>
       </c>
-      <c r="C24" s="28"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="7" t="s">
         <v>106</v>
       </c>
@@ -12893,13 +15978,13 @@
       <c r="K24" s="7">
         <v>2700</v>
       </c>
-      <c r="L24" s="69"/>
+      <c r="L24" s="98"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="16">
         <v>19</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="51" t="s">
         <v>92</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -12921,7 +16006,7 @@
         <f t="shared" si="3"/>
         <v>19946.2</v>
       </c>
-      <c r="L25" s="35" t="s">
+      <c r="L25" s="66" t="s">
         <v>93</v>
       </c>
     </row>
@@ -12929,7 +16014,7 @@
       <c r="B26" s="16">
         <v>20</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="53"/>
       <c r="D26" s="4" t="s">
         <v>95</v>
       </c>
@@ -12949,13 +16034,13 @@
         <f t="shared" si="3"/>
         <v>2975.1</v>
       </c>
-      <c r="L26" s="37"/>
+      <c r="L26" s="65"/>
     </row>
     <row r="27" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B27" s="16">
         <v>21</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="83" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="13" t="s">
@@ -12986,7 +16071,7 @@
         <f>ROUND(9550*G27/I27,1)</f>
         <v>6023.8</v>
       </c>
-      <c r="L27" s="44" t="s">
+      <c r="L27" s="72" t="s">
         <v>20</v>
       </c>
     </row>
@@ -12994,7 +16079,7 @@
       <c r="B28" s="16">
         <v>22</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="83"/>
       <c r="D28" s="13" t="s">
         <v>11</v>
       </c>
@@ -13023,13 +16108,13 @@
         <f t="shared" ref="K28:K31" si="5">ROUND(9550*G28/I28,1)</f>
         <v>6002.9</v>
       </c>
-      <c r="L28" s="44"/>
+      <c r="L28" s="72"/>
     </row>
     <row r="29" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
         <v>23</v>
       </c>
-      <c r="C29" s="61"/>
+      <c r="C29" s="83"/>
       <c r="D29" s="13" t="s">
         <v>12</v>
       </c>
@@ -13058,13 +16143,13 @@
         <f t="shared" si="5"/>
         <v>2506.9</v>
       </c>
-      <c r="L29" s="44"/>
+      <c r="L29" s="72"/>
     </row>
     <row r="30" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="16">
         <v>24</v>
       </c>
-      <c r="C30" s="61"/>
+      <c r="C30" s="83"/>
       <c r="D30" s="13" t="s">
         <v>13</v>
       </c>
@@ -13093,13 +16178,13 @@
         <f t="shared" si="5"/>
         <v>2522.6</v>
       </c>
-      <c r="L30" s="44"/>
+      <c r="L30" s="72"/>
     </row>
     <row r="31" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="16">
         <v>25</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="83"/>
       <c r="D31" s="13" t="s">
         <v>15</v>
       </c>
@@ -13128,13 +16213,13 @@
         <f t="shared" si="5"/>
         <v>2247.1</v>
       </c>
-      <c r="L31" s="44"/>
+      <c r="L31" s="72"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="16">
         <v>26</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="83" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -13165,7 +16250,7 @@
       <c r="K32" s="5">
         <v>6250</v>
       </c>
-      <c r="L32" s="45" t="s">
+      <c r="L32" s="73" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13173,7 +16258,7 @@
       <c r="B33" s="16">
         <v>27</v>
       </c>
-      <c r="C33" s="61"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="5" t="s">
         <v>17</v>
       </c>
@@ -13202,13 +16287,13 @@
       <c r="K33" s="5">
         <v>6500</v>
       </c>
-      <c r="L33" s="45"/>
+      <c r="L33" s="73"/>
     </row>
     <row r="34" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="16">
         <v>28</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="74" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="9" t="s">
@@ -13239,7 +16324,7 @@
         <f t="shared" si="3"/>
         <v>4340.8999999999996</v>
       </c>
-      <c r="L34" s="46" t="s">
+      <c r="L34" s="76" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13247,7 +16332,7 @@
       <c r="B35" s="16">
         <v>29</v>
       </c>
-      <c r="C35" s="43"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="9" t="s">
         <v>24</v>
       </c>
@@ -13276,13 +16361,13 @@
         <f t="shared" si="3"/>
         <v>3350.9</v>
       </c>
-      <c r="L35" s="46"/>
+      <c r="L35" s="76"/>
     </row>
     <row r="36" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="16">
         <v>30</v>
       </c>
-      <c r="C36" s="43"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="9" t="s">
         <v>25</v>
       </c>
@@ -13311,13 +16396,13 @@
         <f t="shared" si="3"/>
         <v>2546.6999999999998</v>
       </c>
-      <c r="L36" s="46"/>
+      <c r="L36" s="76"/>
     </row>
     <row r="37" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B37" s="16">
         <v>31</v>
       </c>
-      <c r="C37" s="43"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="9" t="s">
         <v>26</v>
       </c>
@@ -13346,13 +16431,13 @@
         <f t="shared" si="3"/>
         <v>2494.6999999999998</v>
       </c>
-      <c r="L37" s="46"/>
+      <c r="L37" s="76"/>
     </row>
     <row r="38" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B38" s="16">
         <v>32</v>
       </c>
-      <c r="C38" s="43"/>
+      <c r="C38" s="74"/>
       <c r="D38" s="9" t="s">
         <v>27</v>
       </c>
@@ -13381,13 +16466,13 @@
         <f t="shared" si="3"/>
         <v>1942.4</v>
       </c>
-      <c r="L38" s="46"/>
+      <c r="L38" s="76"/>
     </row>
     <row r="39" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B39" s="16">
         <v>33</v>
       </c>
-      <c r="C39" s="43"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="9" t="s">
         <v>28</v>
       </c>
@@ -13416,13 +16501,13 @@
         <f t="shared" si="3"/>
         <v>1637.1</v>
       </c>
-      <c r="L39" s="46"/>
+      <c r="L39" s="76"/>
     </row>
     <row r="40" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B40" s="16">
         <v>34</v>
       </c>
-      <c r="C40" s="43"/>
+      <c r="C40" s="74"/>
       <c r="D40" s="9" t="s">
         <v>29</v>
       </c>
@@ -13451,13 +16536,13 @@
         <f t="shared" si="3"/>
         <v>1597.2</v>
       </c>
-      <c r="L40" s="46"/>
+      <c r="L40" s="76"/>
     </row>
     <row r="41" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B41" s="16">
         <v>35</v>
       </c>
-      <c r="C41" s="43"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="9" t="s">
         <v>30</v>
       </c>
@@ -13486,13 +16571,13 @@
         <f t="shared" si="3"/>
         <v>1284</v>
       </c>
-      <c r="L41" s="46"/>
+      <c r="L41" s="76"/>
     </row>
     <row r="42" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B42" s="16">
         <v>36</v>
       </c>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="83" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="11" t="s">
@@ -13523,7 +16608,7 @@
       <c r="K42" s="11">
         <v>2500</v>
       </c>
-      <c r="L42" s="53" t="s">
+      <c r="L42" s="75" t="s">
         <v>41</v>
       </c>
     </row>
@@ -13531,7 +16616,7 @@
       <c r="B43" s="16">
         <v>37</v>
       </c>
-      <c r="C43" s="61"/>
+      <c r="C43" s="83"/>
       <c r="D43" s="11">
         <v>250</v>
       </c>
@@ -13560,13 +16645,13 @@
         <f>ROUND(9550*G43/I43,1)</f>
         <v>1900.5</v>
       </c>
-      <c r="L43" s="53"/>
+      <c r="L43" s="75"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" s="16">
         <v>38</v>
       </c>
-      <c r="C44" s="61"/>
+      <c r="C44" s="83"/>
       <c r="D44" s="11">
         <v>500</v>
       </c>
@@ -13595,13 +16680,13 @@
         <f>ROUND(9550*G44/I44,1)</f>
         <v>1900.5</v>
       </c>
-      <c r="L44" s="53"/>
+      <c r="L44" s="75"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="16">
         <v>39</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="51" t="s">
         <v>91</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -13632,7 +16717,7 @@
         <f>ROUND(9550*G45/I45,1)</f>
         <v>3820</v>
       </c>
-      <c r="L45" s="35" t="s">
+      <c r="L45" s="66" t="s">
         <v>90</v>
       </c>
     </row>
@@ -13640,7 +16725,7 @@
       <c r="B46" s="16">
         <v>40</v>
       </c>
-      <c r="C46" s="27"/>
+      <c r="C46" s="52"/>
       <c r="D46" s="4" t="s">
         <v>89</v>
       </c>
@@ -13669,13 +16754,13 @@
         <f t="shared" ref="K46:K55" si="7">ROUND(9550*G46/I46,1)</f>
         <v>3274.3</v>
       </c>
-      <c r="L46" s="36"/>
+      <c r="L46" s="64"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" s="16">
         <v>41</v>
       </c>
-      <c r="C47" s="27"/>
+      <c r="C47" s="52"/>
       <c r="D47" s="4" t="s">
         <v>79</v>
       </c>
@@ -13704,13 +16789,13 @@
         <f t="shared" si="7"/>
         <v>3274.3</v>
       </c>
-      <c r="L47" s="36"/>
+      <c r="L47" s="64"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="16">
         <v>42</v>
       </c>
-      <c r="C48" s="27"/>
+      <c r="C48" s="52"/>
       <c r="D48" s="4" t="s">
         <v>88</v>
       </c>
@@ -13739,13 +16824,13 @@
         <f t="shared" si="7"/>
         <v>2319.3000000000002</v>
       </c>
-      <c r="L48" s="36"/>
+      <c r="L48" s="64"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" s="16">
         <v>43</v>
       </c>
-      <c r="C49" s="27"/>
+      <c r="C49" s="52"/>
       <c r="D49" s="4" t="s">
         <v>86</v>
       </c>
@@ -13774,13 +16859,13 @@
         <f t="shared" si="7"/>
         <v>2387.5</v>
       </c>
-      <c r="L49" s="36"/>
+      <c r="L49" s="64"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" s="16">
         <v>44</v>
       </c>
-      <c r="C50" s="27"/>
+      <c r="C50" s="52"/>
       <c r="D50" s="4" t="s">
         <v>87</v>
       </c>
@@ -13809,13 +16894,13 @@
         <f t="shared" si="7"/>
         <v>1989.6</v>
       </c>
-      <c r="L50" s="36"/>
+      <c r="L50" s="64"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="16">
         <v>45</v>
       </c>
-      <c r="C51" s="27"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="4" t="s">
         <v>85</v>
       </c>
@@ -13844,13 +16929,13 @@
         <f t="shared" si="7"/>
         <v>1910</v>
       </c>
-      <c r="L51" s="36"/>
+      <c r="L51" s="64"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" s="16">
         <v>46</v>
       </c>
-      <c r="C52" s="27"/>
+      <c r="C52" s="52"/>
       <c r="D52" s="4" t="s">
         <v>84</v>
       </c>
@@ -13879,13 +16964,13 @@
         <f t="shared" si="7"/>
         <v>1910</v>
       </c>
-      <c r="L52" s="36"/>
+      <c r="L52" s="64"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="16">
         <v>47</v>
       </c>
-      <c r="C53" s="27"/>
+      <c r="C53" s="52"/>
       <c r="D53" s="4" t="s">
         <v>83</v>
       </c>
@@ -13914,13 +16999,13 @@
         <f t="shared" si="7"/>
         <v>1719</v>
       </c>
-      <c r="L53" s="36"/>
+      <c r="L53" s="64"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B54" s="16">
         <v>48</v>
       </c>
-      <c r="C54" s="27"/>
+      <c r="C54" s="52"/>
       <c r="D54" s="4" t="s">
         <v>82</v>
       </c>
@@ -13949,13 +17034,13 @@
         <f t="shared" si="7"/>
         <v>2387.5</v>
       </c>
-      <c r="L54" s="36"/>
+      <c r="L54" s="64"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="16">
         <v>49</v>
       </c>
-      <c r="C55" s="28"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="4" t="s">
         <v>81</v>
       </c>
@@ -13984,13 +17069,13 @@
         <f t="shared" si="7"/>
         <v>2228.3000000000002</v>
       </c>
-      <c r="L55" s="37"/>
+      <c r="L55" s="65"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B56" s="16">
         <v>50</v>
       </c>
-      <c r="C56" s="43" t="s">
+      <c r="C56" s="74" t="s">
         <v>42</v>
       </c>
       <c r="D56" s="3">
@@ -14021,7 +17106,7 @@
         <f t="shared" ref="K56:K60" si="8">ROUND(9550*G56/I56,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="L56" s="44" t="s">
+      <c r="L56" s="72" t="s">
         <v>43</v>
       </c>
     </row>
@@ -14029,7 +17114,7 @@
       <c r="B57" s="16">
         <v>51</v>
       </c>
-      <c r="C57" s="43"/>
+      <c r="C57" s="74"/>
       <c r="D57" s="3">
         <v>8025</v>
       </c>
@@ -14058,13 +17143,13 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="L57" s="44"/>
+      <c r="L57" s="72"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B58" s="16">
         <v>52</v>
       </c>
-      <c r="C58" s="43"/>
+      <c r="C58" s="74"/>
       <c r="D58" s="3">
         <v>8038</v>
       </c>
@@ -14093,13 +17178,13 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="L58" s="44"/>
+      <c r="L58" s="72"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" s="16">
         <v>53</v>
       </c>
-      <c r="C59" s="43"/>
+      <c r="C59" s="74"/>
       <c r="D59" s="3">
         <v>8057</v>
       </c>
@@ -14128,13 +17213,13 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="L59" s="44"/>
+      <c r="L59" s="72"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" s="16">
         <v>54</v>
       </c>
-      <c r="C60" s="43"/>
+      <c r="C60" s="74"/>
       <c r="D60" s="3">
         <v>12030</v>
       </c>
@@ -14163,13 +17248,13 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="L60" s="44"/>
+      <c r="L60" s="72"/>
     </row>
     <row r="61" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B61" s="16">
         <v>55</v>
       </c>
-      <c r="C61" s="43" t="s">
+      <c r="C61" s="74" t="s">
         <v>47</v>
       </c>
       <c r="D61" s="8" t="s">
@@ -14200,7 +17285,7 @@
       <c r="K61" s="5">
         <v>3000</v>
       </c>
-      <c r="L61" s="45" t="s">
+      <c r="L61" s="73" t="s">
         <v>64</v>
       </c>
     </row>
@@ -14208,7 +17293,7 @@
       <c r="B62" s="16">
         <v>56</v>
       </c>
-      <c r="C62" s="43"/>
+      <c r="C62" s="74"/>
       <c r="D62" s="8" t="s">
         <v>45</v>
       </c>
@@ -14237,13 +17322,13 @@
       <c r="K62" s="5">
         <v>6000</v>
       </c>
-      <c r="L62" s="45"/>
+      <c r="L62" s="73"/>
     </row>
     <row r="63" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B63" s="16">
         <v>57</v>
       </c>
-      <c r="C63" s="43"/>
+      <c r="C63" s="74"/>
       <c r="D63" s="8" t="s">
         <v>46</v>
       </c>
@@ -14272,7 +17357,7 @@
       <c r="K63" s="5">
         <v>6000</v>
       </c>
-      <c r="L63" s="45"/>
+      <c r="L63" s="73"/>
     </row>
     <row r="64" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B64" s="16">
@@ -14317,7 +17402,7 @@
       <c r="B65" s="16">
         <v>59</v>
       </c>
-      <c r="C65" s="43" t="s">
+      <c r="C65" s="74" t="s">
         <v>50</v>
       </c>
       <c r="D65" s="11" t="s">
@@ -14348,7 +17433,7 @@
       <c r="K65" s="11">
         <v>2500</v>
       </c>
-      <c r="L65" s="53" t="s">
+      <c r="L65" s="75" t="s">
         <v>51</v>
       </c>
     </row>
@@ -14356,7 +17441,7 @@
       <c r="B66" s="16">
         <v>60</v>
       </c>
-      <c r="C66" s="43"/>
+      <c r="C66" s="74"/>
       <c r="D66" s="11" t="s">
         <v>49</v>
       </c>
@@ -14384,13 +17469,13 @@
       <c r="K66" s="11">
         <v>2500</v>
       </c>
-      <c r="L66" s="53"/>
+      <c r="L66" s="75"/>
     </row>
     <row r="67" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B67" s="16">
         <v>61</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="51" t="s">
         <v>68</v>
       </c>
       <c r="D67" s="12" t="s">
@@ -14413,7 +17498,7 @@
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
-      <c r="L67" s="35" t="s">
+      <c r="L67" s="66" t="s">
         <v>72</v>
       </c>
     </row>
@@ -14421,7 +17506,7 @@
       <c r="B68" s="16">
         <v>62</v>
       </c>
-      <c r="C68" s="27"/>
+      <c r="C68" s="52"/>
       <c r="D68" s="12" t="s">
         <v>70</v>
       </c>
@@ -14442,13 +17527,13 @@
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
-      <c r="L68" s="36"/>
+      <c r="L68" s="64"/>
     </row>
     <row r="69" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B69" s="16">
         <v>63</v>
       </c>
-      <c r="C69" s="28"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="12" t="s">
         <v>71</v>
       </c>
@@ -14469,13 +17554,13 @@
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
-      <c r="L69" s="37"/>
+      <c r="L69" s="65"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="16">
         <v>64</v>
       </c>
-      <c r="C70" s="43" t="s">
+      <c r="C70" s="74" t="s">
         <v>55</v>
       </c>
       <c r="D70" s="3" t="s">
@@ -14506,7 +17591,7 @@
         <f t="shared" ref="K70:K72" si="10">ROUND(9550*G70/I70,1)</f>
         <v>8011.7</v>
       </c>
-      <c r="L70" s="44" t="s">
+      <c r="L70" s="72" t="s">
         <v>59</v>
       </c>
     </row>
@@ -14514,7 +17599,7 @@
       <c r="B71" s="16">
         <v>65</v>
       </c>
-      <c r="C71" s="43"/>
+      <c r="C71" s="74"/>
       <c r="D71" s="3" t="s">
         <v>57</v>
       </c>
@@ -14543,13 +17628,13 @@
         <f t="shared" si="10"/>
         <v>8003.2</v>
       </c>
-      <c r="L71" s="44"/>
+      <c r="L71" s="72"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="16">
         <v>66</v>
       </c>
-      <c r="C72" s="43"/>
+      <c r="C72" s="74"/>
       <c r="D72" s="3" t="s">
         <v>58</v>
       </c>
@@ -14578,13 +17663,13 @@
         <f t="shared" si="10"/>
         <v>7988</v>
       </c>
-      <c r="L72" s="44"/>
+      <c r="L72" s="72"/>
     </row>
     <row r="73" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B73" s="16">
         <v>67</v>
       </c>
-      <c r="C73" s="43" t="s">
+      <c r="C73" s="74" t="s">
         <v>32</v>
       </c>
       <c r="D73" s="8" t="s">
@@ -14615,7 +17700,7 @@
       <c r="K73" s="8">
         <v>2400</v>
       </c>
-      <c r="L73" s="45" t="s">
+      <c r="L73" s="73" t="s">
         <v>38</v>
       </c>
     </row>
@@ -14623,7 +17708,7 @@
       <c r="B74" s="16">
         <v>68</v>
       </c>
-      <c r="C74" s="43"/>
+      <c r="C74" s="74"/>
       <c r="D74" s="8" t="s">
         <v>36</v>
       </c>
@@ -14652,13 +17737,13 @@
       <c r="K74" s="8">
         <v>2000</v>
       </c>
-      <c r="L74" s="45"/>
+      <c r="L74" s="73"/>
     </row>
     <row r="75" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B75" s="16">
         <v>69</v>
       </c>
-      <c r="C75" s="43"/>
+      <c r="C75" s="74"/>
       <c r="D75" s="8" t="s">
         <v>34</v>
       </c>
@@ -14687,13 +17772,13 @@
       <c r="K75" s="8">
         <v>2400</v>
       </c>
-      <c r="L75" s="45"/>
+      <c r="L75" s="73"/>
     </row>
     <row r="76" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B76" s="16">
         <v>70</v>
       </c>
-      <c r="C76" s="43"/>
+      <c r="C76" s="74"/>
       <c r="D76" s="8" t="s">
         <v>37</v>
       </c>
@@ -14722,13 +17807,13 @@
       <c r="K76" s="8">
         <v>2000</v>
       </c>
-      <c r="L76" s="45"/>
+      <c r="L76" s="73"/>
     </row>
     <row r="77" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B77" s="16">
         <v>71</v>
       </c>
-      <c r="C77" s="43"/>
+      <c r="C77" s="74"/>
       <c r="D77" s="8" t="s">
         <v>35</v>
       </c>
@@ -14757,13 +17842,13 @@
       <c r="K77" s="8">
         <v>2400</v>
       </c>
-      <c r="L77" s="45"/>
+      <c r="L77" s="73"/>
     </row>
     <row r="78" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B78" s="16">
         <v>72</v>
       </c>
-      <c r="C78" s="43"/>
+      <c r="C78" s="74"/>
       <c r="D78" s="8" t="s">
         <v>63</v>
       </c>
@@ -14792,7 +17877,7 @@
       <c r="K78" s="8">
         <v>2400</v>
       </c>
-      <c r="L78" s="45"/>
+      <c r="L78" s="73"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="14"/>
@@ -14847,78 +17932,78 @@
       <c r="L82" s="14"/>
     </row>
     <row r="83" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="42" t="s">
+      <c r="B83" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="42"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="42"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="42"/>
-      <c r="K83" s="42"/>
+      <c r="C83" s="71"/>
+      <c r="D83" s="71"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="71"/>
+      <c r="H83" s="71"/>
+      <c r="I83" s="71"/>
+      <c r="J83" s="71"/>
+      <c r="K83" s="71"/>
       <c r="L83" s="18"/>
     </row>
     <row r="84" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="42"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="42"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="42"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="42"/>
-      <c r="K84" s="42"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="71"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="71"/>
+      <c r="I84" s="71"/>
+      <c r="J84" s="71"/>
+      <c r="K84" s="71"/>
       <c r="L84" s="18"/>
     </row>
     <row r="86" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="25" t="s">
+      <c r="B86" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C86" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D86" s="25" t="s">
+      <c r="D86" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E86" s="25" t="s">
+      <c r="E86" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F86" s="25" t="s">
+      <c r="F86" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G86" s="25" t="s">
+      <c r="G86" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="H86" s="25" t="s">
+      <c r="H86" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I86" s="41" t="s">
+      <c r="I86" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="J86" s="41"/>
-      <c r="K86" s="41"/>
+      <c r="J86" s="70"/>
+      <c r="K86" s="70"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="41"/>
-      <c r="J87" s="41"/>
-      <c r="K87" s="41"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="70"/>
+      <c r="J87" s="70"/>
+      <c r="K87" s="70"/>
     </row>
     <row r="88" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="16">
         <v>1</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="67" t="s">
         <v>74</v>
       </c>
       <c r="D88" s="17" t="s">
@@ -14937,17 +18022,17 @@
         <f t="shared" ref="H88:H101" si="12">ROUND(9550*F88/G88,1)</f>
         <v>5968.8</v>
       </c>
-      <c r="I88" s="54" t="s">
+      <c r="I88" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="J88" s="54"/>
-      <c r="K88" s="54"/>
+      <c r="J88" s="85"/>
+      <c r="K88" s="85"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="16">
         <v>2</v>
       </c>
-      <c r="C89" s="39"/>
+      <c r="C89" s="68"/>
       <c r="D89" s="17" t="s">
         <v>76</v>
       </c>
@@ -14964,15 +18049,15 @@
         <f t="shared" si="12"/>
         <v>4004.8</v>
       </c>
-      <c r="I89" s="54"/>
-      <c r="J89" s="54"/>
-      <c r="K89" s="54"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="K89" s="85"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="16">
         <v>3</v>
       </c>
-      <c r="C90" s="40"/>
+      <c r="C90" s="69"/>
       <c r="D90" s="17" t="s">
         <v>77</v>
       </c>
@@ -14989,15 +18074,15 @@
         <f t="shared" si="12"/>
         <v>3660.8</v>
       </c>
-      <c r="I90" s="54"/>
-      <c r="J90" s="54"/>
-      <c r="K90" s="54"/>
+      <c r="I90" s="85"/>
+      <c r="J90" s="85"/>
+      <c r="K90" s="85"/>
     </row>
     <row r="91" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="16">
         <v>4</v>
       </c>
-      <c r="C91" s="43" t="s">
+      <c r="C91" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D91" s="9">
@@ -15016,17 +18101,17 @@
         <f t="shared" si="12"/>
         <v>6309.8</v>
       </c>
-      <c r="I91" s="46" t="s">
+      <c r="I91" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="J91" s="46"/>
-      <c r="K91" s="46"/>
+      <c r="J91" s="76"/>
+      <c r="K91" s="76"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="16">
         <v>5</v>
       </c>
-      <c r="C92" s="43"/>
+      <c r="C92" s="74"/>
       <c r="D92" s="9">
         <v>208</v>
       </c>
@@ -15043,15 +18128,15 @@
         <f t="shared" si="12"/>
         <v>5942.2</v>
       </c>
-      <c r="I92" s="46"/>
-      <c r="J92" s="46"/>
-      <c r="K92" s="46"/>
+      <c r="I92" s="76"/>
+      <c r="J92" s="76"/>
+      <c r="K92" s="76"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" s="16">
         <v>6</v>
       </c>
-      <c r="C93" s="43"/>
+      <c r="C93" s="74"/>
       <c r="D93" s="9">
         <v>228</v>
       </c>
@@ -15068,15 +18153,15 @@
         <f t="shared" si="12"/>
         <v>5509.6</v>
       </c>
-      <c r="I93" s="46"/>
-      <c r="J93" s="46"/>
-      <c r="K93" s="46"/>
+      <c r="I93" s="76"/>
+      <c r="J93" s="76"/>
+      <c r="K93" s="76"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="16">
         <v>7</v>
       </c>
-      <c r="C94" s="43"/>
+      <c r="C94" s="74"/>
       <c r="D94" s="9">
         <v>268</v>
       </c>
@@ -15093,15 +18178,15 @@
         <f t="shared" si="12"/>
         <v>4469.3999999999996</v>
       </c>
-      <c r="I94" s="46"/>
-      <c r="J94" s="46"/>
-      <c r="K94" s="46"/>
+      <c r="I94" s="76"/>
+      <c r="J94" s="76"/>
+      <c r="K94" s="76"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="16">
         <v>8</v>
       </c>
-      <c r="C95" s="43"/>
+      <c r="C95" s="74"/>
       <c r="D95" s="9">
         <v>348</v>
       </c>
@@ -15118,15 +18203,15 @@
         <f t="shared" si="12"/>
         <v>4011</v>
       </c>
-      <c r="I95" s="46"/>
-      <c r="J95" s="46"/>
-      <c r="K95" s="46"/>
+      <c r="I95" s="76"/>
+      <c r="J95" s="76"/>
+      <c r="K95" s="76"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="16">
         <v>9</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="52" t="s">
         <v>96</v>
       </c>
       <c r="D96" s="7" t="s">
@@ -15145,17 +18230,17 @@
       <c r="H96" s="7">
         <v>2700</v>
       </c>
-      <c r="I96" s="55" t="s">
+      <c r="I96" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="J96" s="56"/>
-      <c r="K96" s="57"/>
+      <c r="J96" s="87"/>
+      <c r="K96" s="88"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" s="16">
         <v>10</v>
       </c>
-      <c r="C97" s="27"/>
+      <c r="C97" s="52"/>
       <c r="D97" s="7" t="s">
         <v>105</v>
       </c>
@@ -15172,15 +18257,15 @@
       <c r="H97" s="7">
         <v>2700</v>
       </c>
-      <c r="I97" s="55"/>
-      <c r="J97" s="56"/>
-      <c r="K97" s="57"/>
+      <c r="I97" s="86"/>
+      <c r="J97" s="87"/>
+      <c r="K97" s="88"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="16">
         <v>11</v>
       </c>
-      <c r="C98" s="28"/>
+      <c r="C98" s="53"/>
       <c r="D98" s="7" t="s">
         <v>106</v>
       </c>
@@ -15197,15 +18282,15 @@
       <c r="H98" s="7">
         <v>2700</v>
       </c>
-      <c r="I98" s="58"/>
-      <c r="J98" s="59"/>
-      <c r="K98" s="60"/>
+      <c r="I98" s="89"/>
+      <c r="J98" s="90"/>
+      <c r="K98" s="91"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" s="16">
         <v>12</v>
       </c>
-      <c r="C99" s="26" t="s">
+      <c r="C99" s="51" t="s">
         <v>92</v>
       </c>
       <c r="D99" s="4" t="s">
@@ -15224,17 +18309,17 @@
         <f t="shared" si="12"/>
         <v>19946.2</v>
       </c>
-      <c r="I99" s="47" t="s">
+      <c r="I99" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="J99" s="48"/>
-      <c r="K99" s="49"/>
+      <c r="J99" s="78"/>
+      <c r="K99" s="79"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="16">
         <v>13</v>
       </c>
-      <c r="C100" s="28"/>
+      <c r="C100" s="53"/>
       <c r="D100" s="4" t="s">
         <v>95</v>
       </c>
@@ -15251,9 +18336,9 @@
         <f t="shared" si="12"/>
         <v>2975.1</v>
       </c>
-      <c r="I100" s="50"/>
-      <c r="J100" s="51"/>
-      <c r="K100" s="52"/>
+      <c r="I100" s="80"/>
+      <c r="J100" s="81"/>
+      <c r="K100" s="82"/>
     </row>
     <row r="101" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="16">
@@ -15278,11 +18363,11 @@
         <f t="shared" si="12"/>
         <v>2247.1</v>
       </c>
-      <c r="I101" s="44" t="s">
+      <c r="I101" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="J101" s="44"/>
-      <c r="K101" s="44"/>
+      <c r="J101" s="72"/>
+      <c r="K101" s="72"/>
     </row>
     <row r="102" spans="2:11" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="16">
@@ -15307,17 +18392,17 @@
       <c r="H102" s="5">
         <v>6500</v>
       </c>
-      <c r="I102" s="45" t="s">
+      <c r="I102" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="J102" s="45"/>
-      <c r="K102" s="45"/>
+      <c r="J102" s="73"/>
+      <c r="K102" s="73"/>
     </row>
     <row r="103" spans="2:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="16">
         <v>16</v>
       </c>
-      <c r="C103" s="43" t="s">
+      <c r="C103" s="74" t="s">
         <v>22</v>
       </c>
       <c r="D103" s="9" t="s">
@@ -15336,17 +18421,17 @@
         <f t="shared" ref="H103:H108" si="14">ROUND(9550*F103/G103,1)</f>
         <v>2546.6999999999998</v>
       </c>
-      <c r="I103" s="46" t="s">
+      <c r="I103" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="J103" s="46"/>
-      <c r="K103" s="46"/>
+      <c r="J103" s="76"/>
+      <c r="K103" s="76"/>
     </row>
     <row r="104" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B104" s="16">
         <v>17</v>
       </c>
-      <c r="C104" s="43"/>
+      <c r="C104" s="74"/>
       <c r="D104" s="9" t="s">
         <v>26</v>
       </c>
@@ -15363,15 +18448,15 @@
         <f t="shared" si="14"/>
         <v>2494.6999999999998</v>
       </c>
-      <c r="I104" s="46"/>
-      <c r="J104" s="46"/>
-      <c r="K104" s="46"/>
+      <c r="I104" s="76"/>
+      <c r="J104" s="76"/>
+      <c r="K104" s="76"/>
     </row>
     <row r="105" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B105" s="16">
         <v>18</v>
       </c>
-      <c r="C105" s="43"/>
+      <c r="C105" s="74"/>
       <c r="D105" s="9" t="s">
         <v>27</v>
       </c>
@@ -15388,15 +18473,15 @@
         <f t="shared" si="14"/>
         <v>1942.4</v>
       </c>
-      <c r="I105" s="46"/>
-      <c r="J105" s="46"/>
-      <c r="K105" s="46"/>
+      <c r="I105" s="76"/>
+      <c r="J105" s="76"/>
+      <c r="K105" s="76"/>
     </row>
     <row r="106" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B106" s="16">
         <v>19</v>
       </c>
-      <c r="C106" s="43"/>
+      <c r="C106" s="74"/>
       <c r="D106" s="9" t="s">
         <v>28</v>
       </c>
@@ -15413,15 +18498,15 @@
         <f t="shared" si="14"/>
         <v>1637.1</v>
       </c>
-      <c r="I106" s="46"/>
-      <c r="J106" s="46"/>
-      <c r="K106" s="46"/>
+      <c r="I106" s="76"/>
+      <c r="J106" s="76"/>
+      <c r="K106" s="76"/>
     </row>
     <row r="107" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B107" s="16">
         <v>20</v>
       </c>
-      <c r="C107" s="43"/>
+      <c r="C107" s="74"/>
       <c r="D107" s="9" t="s">
         <v>29</v>
       </c>
@@ -15438,15 +18523,15 @@
         <f t="shared" si="14"/>
         <v>1597.2</v>
       </c>
-      <c r="I107" s="46"/>
-      <c r="J107" s="46"/>
-      <c r="K107" s="46"/>
+      <c r="I107" s="76"/>
+      <c r="J107" s="76"/>
+      <c r="K107" s="76"/>
     </row>
     <row r="108" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B108" s="16">
         <v>21</v>
       </c>
-      <c r="C108" s="43"/>
+      <c r="C108" s="74"/>
       <c r="D108" s="9" t="s">
         <v>30</v>
       </c>
@@ -15463,15 +18548,15 @@
         <f t="shared" si="14"/>
         <v>1284</v>
       </c>
-      <c r="I108" s="46"/>
-      <c r="J108" s="46"/>
-      <c r="K108" s="46"/>
+      <c r="I108" s="76"/>
+      <c r="J108" s="76"/>
+      <c r="K108" s="76"/>
     </row>
     <row r="109" spans="2:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="16">
         <v>22</v>
       </c>
-      <c r="C109" s="61" t="s">
+      <c r="C109" s="83" t="s">
         <v>40</v>
       </c>
       <c r="D109" s="11" t="s">
@@ -15490,17 +18575,17 @@
       <c r="H109" s="11">
         <v>2500</v>
       </c>
-      <c r="I109" s="53" t="s">
+      <c r="I109" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="J109" s="53"/>
-      <c r="K109" s="53"/>
+      <c r="J109" s="75"/>
+      <c r="K109" s="75"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B110" s="16">
         <v>23</v>
       </c>
-      <c r="C110" s="61"/>
+      <c r="C110" s="83"/>
       <c r="D110" s="11">
         <v>250</v>
       </c>
@@ -15517,15 +18602,15 @@
         <f t="shared" ref="H110:H120" si="15">ROUND(9550*F110/G110,1)</f>
         <v>1900.5</v>
       </c>
-      <c r="I110" s="53"/>
-      <c r="J110" s="53"/>
-      <c r="K110" s="53"/>
+      <c r="I110" s="75"/>
+      <c r="J110" s="75"/>
+      <c r="K110" s="75"/>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B111" s="16">
         <v>24</v>
       </c>
-      <c r="C111" s="61"/>
+      <c r="C111" s="83"/>
       <c r="D111" s="11">
         <v>500</v>
       </c>
@@ -15542,15 +18627,15 @@
         <f t="shared" si="15"/>
         <v>1900.5</v>
       </c>
-      <c r="I111" s="53"/>
-      <c r="J111" s="53"/>
-      <c r="K111" s="53"/>
+      <c r="I111" s="75"/>
+      <c r="J111" s="75"/>
+      <c r="K111" s="75"/>
     </row>
     <row r="112" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="16">
         <v>25</v>
       </c>
-      <c r="C112" s="27" t="s">
+      <c r="C112" s="52" t="s">
         <v>91</v>
       </c>
       <c r="D112" s="4" t="s">
@@ -15569,17 +18654,17 @@
         <f t="shared" si="15"/>
         <v>2319.3000000000002</v>
       </c>
-      <c r="I112" s="62" t="s">
+      <c r="I112" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="J112" s="62"/>
-      <c r="K112" s="62"/>
+      <c r="J112" s="84"/>
+      <c r="K112" s="84"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B113" s="16">
         <v>26</v>
       </c>
-      <c r="C113" s="27"/>
+      <c r="C113" s="52"/>
       <c r="D113" s="4" t="s">
         <v>86</v>
       </c>
@@ -15596,15 +18681,15 @@
         <f t="shared" si="15"/>
         <v>2387.5</v>
       </c>
-      <c r="I113" s="62"/>
-      <c r="J113" s="62"/>
-      <c r="K113" s="62"/>
+      <c r="I113" s="84"/>
+      <c r="J113" s="84"/>
+      <c r="K113" s="84"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B114" s="16">
         <v>27</v>
       </c>
-      <c r="C114" s="27"/>
+      <c r="C114" s="52"/>
       <c r="D114" s="4" t="s">
         <v>87</v>
       </c>
@@ -15621,15 +18706,15 @@
         <f t="shared" si="15"/>
         <v>1989.6</v>
       </c>
-      <c r="I114" s="62"/>
-      <c r="J114" s="62"/>
-      <c r="K114" s="62"/>
+      <c r="I114" s="84"/>
+      <c r="J114" s="84"/>
+      <c r="K114" s="84"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B115" s="16">
         <v>28</v>
       </c>
-      <c r="C115" s="27"/>
+      <c r="C115" s="52"/>
       <c r="D115" s="4" t="s">
         <v>85</v>
       </c>
@@ -15646,15 +18731,15 @@
         <f t="shared" si="15"/>
         <v>1910</v>
       </c>
-      <c r="I115" s="62"/>
-      <c r="J115" s="62"/>
-      <c r="K115" s="62"/>
+      <c r="I115" s="84"/>
+      <c r="J115" s="84"/>
+      <c r="K115" s="84"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B116" s="16">
         <v>29</v>
       </c>
-      <c r="C116" s="27"/>
+      <c r="C116" s="52"/>
       <c r="D116" s="4" t="s">
         <v>84</v>
       </c>
@@ -15671,15 +18756,15 @@
         <f t="shared" si="15"/>
         <v>1910</v>
       </c>
-      <c r="I116" s="62"/>
-      <c r="J116" s="62"/>
-      <c r="K116" s="62"/>
+      <c r="I116" s="84"/>
+      <c r="J116" s="84"/>
+      <c r="K116" s="84"/>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B117" s="16">
         <v>30</v>
       </c>
-      <c r="C117" s="27"/>
+      <c r="C117" s="52"/>
       <c r="D117" s="4" t="s">
         <v>83</v>
       </c>
@@ -15696,15 +18781,15 @@
         <f t="shared" si="15"/>
         <v>1719</v>
       </c>
-      <c r="I117" s="62"/>
-      <c r="J117" s="62"/>
-      <c r="K117" s="62"/>
+      <c r="I117" s="84"/>
+      <c r="J117" s="84"/>
+      <c r="K117" s="84"/>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B118" s="16">
         <v>31</v>
       </c>
-      <c r="C118" s="27"/>
+      <c r="C118" s="52"/>
       <c r="D118" s="4" t="s">
         <v>82</v>
       </c>
@@ -15721,15 +18806,15 @@
         <f t="shared" si="15"/>
         <v>2387.5</v>
       </c>
-      <c r="I118" s="62"/>
-      <c r="J118" s="62"/>
-      <c r="K118" s="62"/>
+      <c r="I118" s="84"/>
+      <c r="J118" s="84"/>
+      <c r="K118" s="84"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B119" s="16">
         <v>32</v>
       </c>
-      <c r="C119" s="28"/>
+      <c r="C119" s="53"/>
       <c r="D119" s="4" t="s">
         <v>81</v>
       </c>
@@ -15746,9 +18831,9 @@
         <f t="shared" si="15"/>
         <v>2228.3000000000002</v>
       </c>
-      <c r="I119" s="62"/>
-      <c r="J119" s="62"/>
-      <c r="K119" s="62"/>
+      <c r="I119" s="84"/>
+      <c r="J119" s="84"/>
+      <c r="K119" s="84"/>
     </row>
     <row r="120" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="16">
@@ -15773,11 +18858,11 @@
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
-      <c r="I120" s="44" t="s">
+      <c r="I120" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="J120" s="44"/>
-      <c r="K120" s="44"/>
+      <c r="J120" s="72"/>
+      <c r="K120" s="72"/>
     </row>
     <row r="121" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="16">
@@ -15802,17 +18887,17 @@
       <c r="H121" s="8">
         <v>2500</v>
       </c>
-      <c r="I121" s="45" t="s">
+      <c r="I121" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="J121" s="45"/>
-      <c r="K121" s="45"/>
+      <c r="J121" s="73"/>
+      <c r="K121" s="73"/>
     </row>
     <row r="122" spans="2:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="16">
         <v>35</v>
       </c>
-      <c r="C122" s="43" t="s">
+      <c r="C122" s="74" t="s">
         <v>50</v>
       </c>
       <c r="D122" s="9" t="s">
@@ -15831,17 +18916,17 @@
       <c r="H122" s="9">
         <v>2500</v>
       </c>
-      <c r="I122" s="46" t="s">
+      <c r="I122" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="J122" s="46"/>
-      <c r="K122" s="46"/>
+      <c r="J122" s="76"/>
+      <c r="K122" s="76"/>
     </row>
     <row r="123" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B123" s="16">
         <v>36</v>
       </c>
-      <c r="C123" s="43"/>
+      <c r="C123" s="74"/>
       <c r="D123" s="9" t="s">
         <v>49</v>
       </c>
@@ -15857,9 +18942,9 @@
       <c r="H123" s="9">
         <v>2500</v>
       </c>
-      <c r="I123" s="46"/>
-      <c r="J123" s="46"/>
-      <c r="K123" s="46"/>
+      <c r="I123" s="76"/>
+      <c r="J123" s="76"/>
+      <c r="K123" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="71">
